--- a/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocos_project\Hook\Client\ExcelConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="22500" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,8 +79,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,21 +95,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,25 +441,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,19 +1032,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="4" width="19.25" customWidth="1"/>
@@ -443,7 +1054,7 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -501,7 +1112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -530,7 +1141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0</v>
       </c>
@@ -544,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -559,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -573,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>30</v>
@@ -582,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
@@ -602,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>1.4</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>60</v>
@@ -617,7 +1228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
@@ -631,7 +1242,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1.6</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1">
         <v>90</v>
@@ -646,7 +1257,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
@@ -660,7 +1271,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="1">
-        <v>1.8</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
         <v>120</v>
@@ -675,7 +1286,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
@@ -689,7 +1300,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>150</v>
@@ -704,7 +1315,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>6</v>
       </c>
@@ -718,7 +1329,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="1">
-        <v>2.5</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1">
         <v>180</v>
@@ -733,7 +1344,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>7</v>
       </c>
@@ -747,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="F11" s="1">
         <v>210</v>
@@ -762,7 +1373,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>8</v>
       </c>
@@ -776,7 +1387,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="1">
-        <v>3.5</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>240</v>
@@ -791,7 +1402,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>9</v>
       </c>
@@ -805,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
         <v>270</v>
@@ -820,7 +1431,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>10</v>
       </c>
@@ -834,7 +1445,7 @@
         <v>110</v>
       </c>
       <c r="E14" s="1">
-        <v>4.5</v>
+        <v>220</v>
       </c>
       <c r="F14" s="1">
         <v>300</v>
@@ -849,7 +1460,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -857,7 +1468,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -866,8 +1477,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCreatorProject\Git_Hook\Client\ExcelConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,18 +33,12 @@
     <t>energyLimit</t>
   </si>
   <si>
-    <t>getCoins</t>
-  </si>
-  <si>
     <t>mnormalAccelerate</t>
   </si>
   <si>
     <t>floorAccelerate</t>
   </si>
   <si>
-    <t>mnormalCost</t>
-  </si>
-  <si>
     <t>wallAccelerate</t>
   </si>
   <si>
@@ -64,9 +63,6 @@
     <t>地板加速度升级项</t>
   </si>
   <si>
-    <t>普通怪物价值升级项</t>
-  </si>
-  <si>
     <t>墙体加速度升级项</t>
   </si>
   <si>
@@ -74,19 +70,38 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>offlineRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etCoins</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取金币倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,345 +110,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -441,311 +140,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,19 +446,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="4" width="19.25" customWidth="1"/>
@@ -1054,7 +468,7 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,80 +482,80 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1170,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1193,13 +607,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1228,7 +642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1257,7 +671,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1286,7 +700,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1315,7 +729,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1344,7 +758,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1373,7 +787,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1402,7 +816,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1431,7 +845,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1460,7 +874,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1468,7 +882,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1477,8 +891,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupPlayer.xlsx
@@ -101,11 +101,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +115,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,60 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,8 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,53 +222,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,139 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,10 +493,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,7 +504,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +547,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,139 +576,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,7 +1061,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1182,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1211,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1240,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
         <v>30</v>
@@ -1269,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="2">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2">
         <v>60</v>
@@ -1298,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2">
         <v>90</v>
@@ -1327,7 +1320,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F9" s="2">
         <v>120</v>
@@ -1356,7 +1349,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2">
         <v>150</v>
@@ -1385,7 +1378,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="2">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2">
         <v>180</v>
@@ -1414,7 +1407,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="2">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="F12" s="2">
         <v>210</v>
@@ -1443,7 +1436,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="2">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="F13" s="2">
         <v>240</v>
@@ -1472,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F14" s="2">
         <v>270</v>
@@ -1501,7 +1494,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="2">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="F15" s="2">
         <v>300</v>
